--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.010720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.010720.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3175,12 +3175,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3343,12 +3343,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3935,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4439,12 +4439,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4653,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5241,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5745,12 +5745,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5913,12 +5913,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6207,12 +6207,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8017,12 +8017,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8479,12 +8479,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8645,12 +8645,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9525,12 +9525,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9735,12 +9735,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9777,12 +9777,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10231,12 +10231,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10399,12 +10399,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11617,12 +11617,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11785,12 +11785,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11911,12 +11911,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12583,12 +12583,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12625,12 +12625,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12751,12 +12751,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13339,12 +13339,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13507,12 +13507,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14855,12 +14855,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15023,12 +15023,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
